--- a/data/trans_dic/P10_1-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P10_1-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que tiene acceso a internet con datos de teléfono móvil</t>
+          <t>Población que tiene acceso a internet con datos de teléfono móvil (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -606,7 +607,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>89,48%</t>
+          <t>89,77%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -616,7 +617,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>94,23%</t>
+          <t>94,18%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -626,7 +627,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>91,77%</t>
+          <t>91,9%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>83,55; 93,16</t>
+          <t>83,29; 93,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>82,08; 93,78</t>
+          <t>83,9; 94,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>88,51; 96,66</t>
+          <t>89,31; 96,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>88,87; 97,37</t>
+          <t>90,1; 96,94</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>87,58; 93,88</t>
+          <t>87,96; 93,97</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>88,0; 94,6</t>
+          <t>88,21; 94,66</t>
         </is>
       </c>
     </row>
@@ -686,7 +687,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>93,67%</t>
+          <t>94,02%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -696,17 +697,17 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>95,05%</t>
+          <t>94,88%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>95,52%</t>
+          <t>95,53%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>94,33%</t>
+          <t>94,43%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>92,58; 98,51</t>
+          <t>91,86; 98,08</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>88,59; 96,91</t>
+          <t>89,26; 97,21</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>91,4; 97,32</t>
+          <t>91,56; 97,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>91,43; 97,65</t>
+          <t>90,54; 97,37</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>93,42; 97,23</t>
+          <t>93,31; 97,37</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>91,65; 96,61</t>
+          <t>91,41; 96,4</t>
         </is>
       </c>
     </row>
@@ -766,7 +767,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>91,67%</t>
+          <t>91,05%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -776,7 +777,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>91,49%</t>
+          <t>91,11%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -786,7 +787,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>91,58%</t>
+          <t>91,08%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>85,32; 94,73</t>
+          <t>85,94; 94,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>84,54; 94,98</t>
+          <t>83,96; 94,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>89,11; 94,79</t>
+          <t>88,95; 94,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>88,02; 94,35</t>
+          <t>87,34; 94,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>88,66; 94,06</t>
+          <t>88,57; 94,01</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>87,96; 93,97</t>
+          <t>87,47; 93,28</t>
         </is>
       </c>
     </row>
@@ -846,7 +847,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>89,58%</t>
+          <t>89,47%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -856,7 +857,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>90,44%</t>
+          <t>90,13%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -866,7 +867,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>90,03%</t>
+          <t>89,81%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>86,25; 93,32</t>
+          <t>86,51; 93,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>84,03; 93,3</t>
+          <t>82,54; 92,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>83,85; 90,71</t>
+          <t>83,9; 90,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>86,71; 93,53</t>
+          <t>86,7; 92,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>86,07; 90,79</t>
+          <t>85,98; 90,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>86,24; 92,3</t>
+          <t>86,47; 92,45</t>
         </is>
       </c>
     </row>
@@ -926,7 +927,7 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>79,55%</t>
+          <t>79,62%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -936,7 +937,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>88,6%</t>
+          <t>87,91%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -946,7 +947,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>84,15%</t>
+          <t>83,82%</t>
         </is>
       </c>
     </row>
@@ -959,32 +960,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>73,25; 85,68</t>
+          <t>72,51; 85,72</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>72,02; 84,82</t>
+          <t>72,09; 85,08</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>78,77; 88,33</t>
+          <t>78,77; 88,3</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>83,63; 92,02</t>
+          <t>83,28; 91,8</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>77,87; 85,67</t>
+          <t>77,78; 85,34</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>79,73; 87,6</t>
+          <t>79,7; 87,36</t>
         </is>
       </c>
     </row>
@@ -1001,12 +1002,12 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>60,48%</t>
+          <t>60,47%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>69,29%</t>
+          <t>70,88%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1016,7 +1017,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>59,8%</t>
+          <t>61,71%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1026,7 +1027,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>63,91%</t>
+          <t>65,67%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1040,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>53,85; 67,99</t>
+          <t>53,1; 67,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>59,51; 76,54</t>
+          <t>63,36; 77,41</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>49,3; 61,14</t>
+          <t>49,19; 60,91</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>52,83; 67,17</t>
+          <t>55,11; 68,21</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>52,68; 61,33</t>
+          <t>52,85; 61,97</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>58,02; 69,05</t>
+          <t>60,31; 70,67</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1087,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>86,01%</t>
+          <t>86,23%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
@@ -1096,7 +1097,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>85,46%</t>
+          <t>85,57%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1106,7 +1107,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>85,73%</t>
+          <t>85,89%</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1120,39 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>82,71; 87,0</t>
+          <t>82,58; 86,87</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>83,39; 88,35</t>
+          <t>83,79; 88,36</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>81,16; 84,91</t>
+          <t>81,14; 84,93</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>83,32; 87,46</t>
+          <t>83,56; 87,34</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>82,65; 85,41</t>
+          <t>82,67; 85,39</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>83,79; 87,22</t>
+          <t>84,4; 87,45</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1164,4 +1172,952 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que tiene acceso a internet con datos de teléfono móvil (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>151.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>158.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>143.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>309.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>264.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>455489</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>450713</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>434282</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>441525</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>889772</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>892238</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>427263; 477613</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>421228; 472057</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>413387; 447612</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>422386; 454446</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>858378; 916966</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>856424; 919021</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>172.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>146.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>200.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>165.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>372.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>311.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>540640</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>539023</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>493202</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>492490</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1033843</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1031513</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>517539; 552585</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>511700; 557282</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>475044; 505597</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>469950; 505410</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1009836; 1053780</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>998552; 1053078</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>233.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>198.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>309.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>259.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>542.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>457.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>616891</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>624926</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>640847</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>649126</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1257737</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>1274052</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>580859; 640920</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>576294; 647860</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>617531; 658654</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>622247; 670093</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1213541; 1288014</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1223599; 1304864</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>262.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>234.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>311.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>275.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>573.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>509.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>575604</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>579104</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>614903</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>617949</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1190507</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1197054</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>552316; 593931</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>534267; 601029</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>590048; 638330</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>594440; 636937</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1153658; 1218459</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1152552; 1232307</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>197.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>170.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>200.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>191.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>397.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>361.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>410611</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>394345</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>422066</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>447507</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>832678</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>841852</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>371169; 438814</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>357052; 421407</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>395787; 443660</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>423950; 467313</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>788979; 865678</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>800507; 877406</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>134.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>158.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>292.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>257.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>330700</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>386427</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>402248</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>442917</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>732948</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>829343</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>290406; 366420</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>345424; 422027</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>359641; 445314</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>395557; 489535</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>675374; 791936</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>761723; 892498</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>1149.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>996.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>1336.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>1163.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>2485.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>2159.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>2929935</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>2974539</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>3007549</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>3091514</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>5937485</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>6066053</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>2848612; 2996508</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>2890449; 3048032</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>2931202; 3068361</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>3018783; 3155214</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>5838620; 6030444</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>5960352; 6176004</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>